--- a/data/浓度场数据-0710/RNV_concentration.xlsx
+++ b/data/浓度场数据-0710/RNV_concentration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,7 +699,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -980,8 +980,8 @@
   <sheetPr/>
   <dimension ref="A1:A1245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A455" sqref="A455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3243,322 +3243,322 @@
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>27</v>
+        <v>137</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>26</v>
+        <v>185</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>21</v>
+        <v>348</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>20</v>
+        <v>313</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>20</v>
+        <v>233</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>24</v>
+        <v>119</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>80</v>
+        <v>144</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>92</v>
+        <v>160</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>189</v>
+        <v>136</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>196</v>
+        <v>76</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>169</v>
+        <v>46</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>164</v>
+        <v>45</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>164</v>
+        <v>66</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>170</v>
+        <v>108</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>144</v>
+        <v>201</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>103</v>
+        <v>141</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="516" spans="1:1">
@@ -3568,97 +3568,97 @@
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>98</v>
+        <v>322</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>69</v>
+        <v>313</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>60</v>
+        <v>326</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>59</v>
+        <v>380</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>62</v>
+        <v>368</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>45</v>
+        <v>305</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>31</v>
+        <v>274</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>22</v>
+        <v>268</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>20</v>
+        <v>267</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>21</v>
+        <v>194</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="536" spans="1:1">
@@ -3668,457 +3668,457 @@
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>32</v>
+        <v>310</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>34</v>
+        <v>376</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>34</v>
+        <v>354</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>103</v>
+        <v>339</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>112</v>
+        <v>324</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>104</v>
+        <v>312</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>101</v>
+        <v>195</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>172</v>
+        <v>95</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>66</v>
+        <v>133</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>47</v>
+        <v>294</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>35</v>
+        <v>340</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>30</v>
+        <v>354</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>30</v>
+        <v>367</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>30</v>
+        <v>375</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>30</v>
+        <v>380</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>29</v>
+        <v>392</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>29</v>
+        <v>395</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>27</v>
+        <v>398</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>28</v>
+        <v>390</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>27</v>
+        <v>377</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>26</v>
+        <v>365</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>24</v>
+        <v>333</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>23</v>
+        <v>304</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>23</v>
+        <v>288</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>22</v>
+        <v>291</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>22</v>
+        <v>259</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>21</v>
+        <v>259</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>20</v>
+        <v>321</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>23</v>
+        <v>301</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>25</v>
+        <v>318</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>23</v>
+        <v>264</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="628" spans="1:1">
@@ -4128,62 +4128,62 @@
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="641" spans="1:1">
@@ -4198,12 +4198,12 @@
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="645" spans="1:1">
@@ -4213,207 +4213,207 @@
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>205</v>
+        <v>27</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>182</v>
+        <v>37</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>57</v>
+        <v>111</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>211</v>
+        <v>30</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>227</v>
+        <v>25</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>190</v>
+        <v>23</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>33</v>
+        <v>171</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>29</v>
+        <v>236</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>22</v>
+        <v>248</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>22</v>
+        <v>267</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>21</v>
+        <v>336</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>22</v>
+        <v>325</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>22</v>
+        <v>314</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>23</v>
+        <v>291</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>23</v>
+        <v>272</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>23</v>
+        <v>303</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>25</v>
+        <v>239</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>24</v>
+        <v>153</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="687" spans="1:1">
@@ -4423,67 +4423,67 @@
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="701" spans="1:1">
@@ -13461,8 +13461,8 @@
   <sheetPr/>
   <dimension ref="A1:A1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A463" sqref="A463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15719,62 +15719,62 @@
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="463" spans="1:1">
